--- a/study03/report/correlation/signedup-participants/CorrMatrixAnalysis.xlsx
+++ b/study03/report/correlation/signedup-participants/CorrMatrixAnalysis.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="125">
   <si>
-    <t>Correlation information for Correlation of Gains in Skills/Knowledge and Motivation using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge and Motivation using the method: spearman</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -31,7 +31,7 @@
     <t>Correlation matrix</t>
   </si>
   <si>
-    <t>Gains in Skills/Knowledge</t>
+    <t>Gains in Skill/Knowledge</t>
   </si>
   <si>
     <t>Intrinsic Motivation</t>
@@ -217,22 +217,22 @@
     <t>Rlvnc-Stsfc</t>
   </si>
   <si>
-    <t>Data source for Correlation of Gains in Skills/Knowledge and Motivation</t>
+    <t>Data source for Gains in Skill/Knowledge and Motivation</t>
   </si>
   <si>
-    <t>Data full source for Correlation of Gains in Skills/Knowledge and Motivation</t>
+    <t>Data full source for Gains in Skill/Knowledge and Motivation</t>
   </si>
   <si>
     <t>UserID</t>
   </si>
   <si>
-    <t>Correlation information for Correlation of Gains in Skills/Knowledge and Motivation for the group ont-gamified using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge and Motivation for the group ont-gamified using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Correlation of Gains in Skills/Knowledge and Motivation for the group ont-gamified</t>
+    <t>Data source for Gains in Skill/Knowledge and Motivation for the group ont-gamified</t>
   </si>
   <si>
-    <t>Data full source for Correlation of Gains in Skills/Knowledge and Motivation for the group ont-gamified</t>
+    <t>Data full source for Gains in Skill/Knowledge and Motivation for the group ont-gamified</t>
   </si>
   <si>
     <t>NroUSP</t>
@@ -295,13 +295,13 @@
     <t>Yee Achiever</t>
   </si>
   <si>
-    <t>Correlation information for Correlation of Gains in Skills/Knowledge and Motivation for the group w/o-gamified using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge and Motivation for the group w/o-gamified using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Correlation of Gains in Skills/Knowledge and Motivation for the group w/o-gamified</t>
+    <t>Data source for Gains in Skill/Knowledge and Motivation for the group w/o-gamified</t>
   </si>
   <si>
-    <t>Data full source for Correlation of Gains in Skills/Knowledge and Motivation for the group w/o-gamified</t>
+    <t>Data full source for Gains in Skill/Knowledge and Motivation for the group w/o-gamified</t>
   </si>
   <si>
     <t>w/o-gamified</t>
@@ -343,58 +343,58 @@
     <t/>
   </si>
   <si>
-    <t>Correlation information for Correlation of Gains in Skills/Knowledge and Motivation for the group Apprentice using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge and Motivation for the group Apprentice using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Correlation of Gains in Skills/Knowledge and Motivation for the group Apprentice</t>
+    <t>Data source for Gains in Skill/Knowledge and Motivation for the group Apprentice</t>
   </si>
   <si>
-    <t>Data full source for Correlation of Gains in Skills/Knowledge and Motivation for the group Apprentice</t>
+    <t>Data full source for Gains in Skill/Knowledge and Motivation for the group Apprentice</t>
   </si>
   <si>
-    <t>Correlation information for Correlation of Gains in Skills/Knowledge and Motivation for the group Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge and Motivation for the group Master using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Correlation of Gains in Skills/Knowledge and Motivation for the group Master</t>
+    <t>Data source for Gains in Skill/Knowledge and Motivation for the group Master</t>
   </si>
   <si>
-    <t>Data full source for Correlation of Gains in Skills/Knowledge and Motivation for the group Master</t>
+    <t>Data full source for Gains in Skill/Knowledge and Motivation for the group Master</t>
   </si>
   <si>
-    <t>Correlation information for Correlation of Gains in Skills/Knowledge and Motivation for the group ont-gamified.Apprentice using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge and Motivation for the group ont-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Correlation of Gains in Skills/Knowledge and Motivation for the group ont-gamified.Apprentice</t>
+    <t>Data source for Gains in Skill/Knowledge and Motivation for the group ont-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Data full source for Correlation of Gains in Skills/Knowledge and Motivation for the group ont-gamified.Apprentice</t>
+    <t>Data full source for Gains in Skill/Knowledge and Motivation for the group ont-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Correlation information for Correlation of Gains in Skills/Knowledge and Motivation for the group ont-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge and Motivation for the group ont-gamified.Master using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Correlation of Gains in Skills/Knowledge and Motivation for the group ont-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge and Motivation for the group ont-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Correlation of Gains in Skills/Knowledge and Motivation for the group ont-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge and Motivation for the group ont-gamified.Master</t>
   </si>
   <si>
-    <t>Correlation information for Correlation of Gains in Skills/Knowledge and Motivation for the group w/o-gamified.Apprentice using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge and Motivation for the group w/o-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Correlation of Gains in Skills/Knowledge and Motivation for the group w/o-gamified.Apprentice</t>
+    <t>Data source for Gains in Skill/Knowledge and Motivation for the group w/o-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Data full source for Correlation of Gains in Skills/Knowledge and Motivation for the group w/o-gamified.Apprentice</t>
+    <t>Data full source for Gains in Skill/Knowledge and Motivation for the group w/o-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Correlation information for Correlation of Gains in Skills/Knowledge and Motivation for the group w/o-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge and Motivation for the group w/o-gamified.Master using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Correlation of Gains in Skills/Knowledge and Motivation for the group w/o-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge and Motivation for the group w/o-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Correlation of Gains in Skills/Knowledge and Motivation for the group w/o-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge and Motivation for the group w/o-gamified.Master</t>
   </si>
 </sst>
 </file>
